--- a/artfynd/A 34775-2023 artfynd.xlsx
+++ b/artfynd/A 34775-2023 artfynd.xlsx
@@ -8293,7 +8293,7 @@
         <v>126786066</v>
       </c>
       <c r="B65" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
